--- a/Doc/오동 남은 목록.xlsx
+++ b/Doc/오동 남은 목록.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>카테고리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,57 @@
   <si>
     <t>로컬마다의 카테고리 목록 추가
 영어버전을 먼저 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>읽은 목록은 회색 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류 탭의 세번째 탭을 갔다가, 다른 대분류로 목록을 변경한뒤,
+다시 해당 소분류가 있던 대분류 탭을 클릭하면,
+탭 자체는 첫번째 소분류이나, 실제로는 이전 세번째 탭의 소분류 목록을 보여주고 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한번 읽은 목록은 제목 텍스트 색상을 회색으로 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰 텍스트를 아이콘으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최 상단 트레이 색상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최 상단 트레이 색상을 오동색으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록의 view 텍스트를 뷰 아이콘으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위 낮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동영상 보기 페이지 디자인 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동영상 보기 페이지에서 동영상 외의 제목 / 작성자 / 뷰에 대해 표시
+하단은 덧글과 광고 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -269,6 +320,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E17"/>
+  <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -659,7 +713,9 @@
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -679,7 +735,9 @@
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -709,7 +767,9 @@
       <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="2:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -729,7 +789,9 @@
       <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="2:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -781,6 +843,56 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="2:5" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="2:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
